--- a/data/Behavioral/description/WHODAS_P.xlsx
+++ b/data/Behavioral/description/WHODAS_P.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -114,46 +114,49 @@
     <t>WHO Disability Assessment Schedule (WHODAS) Parent-Report</t>
   </si>
   <si>
-    <t>WHODAS_P_01</t>
-  </si>
-  <si>
-    <t>WHODAS_P_02</t>
-  </si>
-  <si>
-    <t>WHODAS_P_03</t>
-  </si>
-  <si>
-    <t>WHODAS_P_04</t>
-  </si>
-  <si>
-    <t>WHODAS_P_05</t>
-  </si>
-  <si>
-    <t>WHODAS_P_06</t>
-  </si>
-  <si>
-    <t>WHODAS_P_07</t>
-  </si>
-  <si>
-    <t>WHODAS_P_08</t>
-  </si>
-  <si>
-    <t>WHODAS_P_09</t>
-  </si>
-  <si>
-    <t>WHODAS_P_10</t>
-  </si>
-  <si>
-    <t>WHODAS_P_11</t>
-  </si>
-  <si>
-    <t>WHODAS_P_Days01</t>
-  </si>
-  <si>
-    <t>WHODAS_P_Days02</t>
-  </si>
-  <si>
-    <t>WHODAS_P_Days03</t>
+    <t>WHODAS_SR_01</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_02</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_03</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_04</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_05</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_06</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_07</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_08</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_09</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_10</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_11</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_12</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_Days01</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_Days02</t>
+  </si>
+  <si>
+    <t>WHODAS_SR_Days03</t>
   </si>
 </sst>
 </file>
@@ -649,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>9</v>
@@ -893,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
@@ -904,7 +907,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>9</v>
@@ -915,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
